--- a/Excel Files/ButtonNames- EXCEL.xlsx
+++ b/Excel Files/ButtonNames- EXCEL.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28014"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4640A19E-2361-44E4-BA8D-61113E0FA0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvir\Downloads\Excel Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC914068-4678-4438-904A-BDB7B81274EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1917,7 +1921,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2100,7 +2104,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2434,114 +2438,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1796875" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" ht="36" customHeight="1">
+    <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" ht="81" customHeight="1">
+    <row r="3" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:2" ht="29.25">
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="30.75" customHeight="1">
+    <row r="5" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" ht="177.75" customHeight="1">
+    <row r="6" spans="1:2" ht="177.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="45.75" customHeight="1">
+    <row r="7" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="47.25" customHeight="1">
+    <row r="8" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:2" ht="99" customHeight="1">
+    <row r="9" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:2" ht="60.75" customHeight="1">
+    <row r="10" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" ht="55.5" customHeight="1">
+    <row r="11" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:2" ht="77.25" customHeight="1">
+    <row r="12" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:2" ht="48" customHeight="1">
+    <row r="13" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:2" ht="65.25" customHeight="1">
+    <row r="14" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:2" ht="78" customHeight="1">
+    <row r="15" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:2" ht="63" customHeight="1">
+    <row r="16" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" ht="61.5" customHeight="1">
+    <row r="17" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -2549,7 +2553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45.75">
+    <row r="18" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2557,7 +2561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30.75">
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30.75">
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2573,7 +2577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30.75">
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30.75">
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30.75">
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -2597,7 +2601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30.75">
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="76.5">
+    <row r="25" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -2613,7 +2617,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="76.5">
+    <row r="26" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30.75">
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30.75">
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2637,7 +2641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30.75">
+    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30.75">
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -2653,7 +2657,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -2661,7 +2665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30.75">
+    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30.75">
+    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -2693,7 +2697,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30.75">
+    <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30.75">
+    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30.75">
+    <row r="38" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>57</v>
       </c>
@@ -2717,7 +2721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="76.5">
+    <row r="39" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -2725,7 +2729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30.75">
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="76.5">
+    <row r="41" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>63</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30.75">
+    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>67</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30.75">
+    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
@@ -2765,7 +2769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30.75">
+    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
@@ -2781,7 +2785,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30.75">
+    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>75</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>77</v>
       </c>
@@ -2797,7 +2801,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30.75">
+    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>79</v>
       </c>
@@ -2805,7 +2809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30.75">
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>83</v>
       </c>
@@ -2821,7 +2825,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30.75">
+    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>85</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30.75">
+    <row r="53" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>93</v>
       </c>
@@ -2861,7 +2865,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>97</v>
       </c>
@@ -2877,7 +2881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30.75">
+    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>99</v>
       </c>
@@ -2885,7 +2889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>101</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30.75">
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>103</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>105</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>107</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30.75">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>109</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>111</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>113</v>
       </c>
@@ -2941,7 +2945,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>115</v>
       </c>
@@ -2949,7 +2953,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="76.5">
+    <row r="68" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>116</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30.75">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>118</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="76.5">
+    <row r="70" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30.75">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>122</v>
       </c>
@@ -2981,7 +2985,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="76.5">
+    <row r="72" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>124</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>126</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="76.5">
+    <row r="74" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>128</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="30.75">
+    <row r="75" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>130</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="76.5">
+    <row r="76" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>132</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30.75">
+    <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>134</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="76.5">
+    <row r="78" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>136</v>
       </c>
@@ -3037,7 +3041,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30.75">
+    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>138</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>140</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="91.5">
+    <row r="81" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="30.75">
+    <row r="82" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>144</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>146</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>148</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>150</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>152</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>154</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="76.5">
+    <row r="88" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>156</v>
       </c>
@@ -3117,7 +3121,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="30.75">
+    <row r="89" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>158</v>
       </c>
@@ -3125,7 +3129,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="76.5">
+    <row r="90" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>160</v>
       </c>
@@ -3133,7 +3137,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30.75">
+    <row r="91" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>162</v>
       </c>
@@ -3141,7 +3145,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="30.75">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>164</v>
       </c>
@@ -3149,7 +3153,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="45.75">
+    <row r="93" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>166</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="45.75">
+    <row r="94" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>168</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="30.75">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>170</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>172</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="45.75">
+    <row r="97" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>174</v>
       </c>
@@ -3189,7 +3193,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="30.75">
+    <row r="98" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>176</v>
       </c>
@@ -3197,7 +3201,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="30.75">
+    <row r="99" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>178</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30.75">
+    <row r="100" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>180</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="76.5">
+    <row r="101" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>182</v>
       </c>
@@ -3221,7 +3225,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="30.75">
+    <row r="102" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>184</v>
       </c>
@@ -3229,7 +3233,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="30.75">
+    <row r="103" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>186</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30.75">
+    <row r="104" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>188</v>
       </c>
@@ -3245,7 +3249,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="30.75">
+    <row r="105" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>190</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>192</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>194</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>196</v>
       </c>
@@ -3277,7 +3281,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>198</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="30.75">
+    <row r="110" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>200</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="30.75">
+    <row r="111" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>202</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="45.75">
+    <row r="112" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>204</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30.75">
+    <row r="113" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>206</v>
       </c>
@@ -3317,7 +3321,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="60.75">
+    <row r="114" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>208</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="30.75">
+    <row r="115" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>210</v>
       </c>
@@ -3333,7 +3337,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="30.75">
+    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>212</v>
       </c>
@@ -3341,7 +3345,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="30.75">
+    <row r="117" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>214</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="30.75">
+    <row r="118" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>216</v>
       </c>
@@ -3357,7 +3361,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30.75">
+    <row r="119" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>218</v>
       </c>
@@ -3365,7 +3369,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30.75">
+    <row r="120" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>220</v>
       </c>
@@ -3373,7 +3377,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30.75">
+    <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>222</v>
       </c>
@@ -3381,7 +3385,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>224</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="45.75">
+    <row r="123" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>226</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="30.75">
+    <row r="124" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>228</v>
       </c>
@@ -3405,7 +3409,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="106.5">
+    <row r="125" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>230</v>
       </c>
@@ -3413,7 +3417,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="30.75">
+    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>232</v>
       </c>
@@ -3421,7 +3425,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="76.5">
+    <row r="127" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>234</v>
       </c>
@@ -3429,7 +3433,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="30.75">
+    <row r="128" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>236</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="76.5">
+    <row r="129" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>238</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>240</v>
       </c>
@@ -3453,7 +3457,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="30.75">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>242</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="60.75">
+    <row r="132" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>244</v>
       </c>
@@ -3469,7 +3473,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="76.5">
+    <row r="133" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>246</v>
       </c>
@@ -3477,23 +3481,23 @@
         <v>247</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="30.75">
+    <row r="134" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30.75">
+    <row r="135" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="30.75">
+    <row r="136" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>252</v>
       </c>
@@ -3501,7 +3505,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="30.75">
+    <row r="137" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>254</v>
       </c>
@@ -3509,7 +3513,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30.75">
+    <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>256</v>
       </c>
@@ -3517,7 +3521,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="45.75">
+    <row r="139" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>258</v>
       </c>
@@ -3525,7 +3529,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="30.75">
+    <row r="140" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>260</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="45.75">
+    <row r="141" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>262</v>
       </c>
@@ -3541,7 +3545,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="30.75">
+    <row r="142" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>264</v>
       </c>
@@ -3549,7 +3553,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="30.75">
+    <row r="143" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>266</v>
       </c>
@@ -3557,7 +3561,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="30.75">
+    <row r="144" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>268</v>
       </c>
@@ -3565,7 +3569,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30.75">
+    <row r="145" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>270</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="30.75">
+    <row r="146" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>272</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="30.75">
+    <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>274</v>
       </c>
@@ -3589,7 +3593,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="30.75">
+    <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>276</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="30.75">
+    <row r="149" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>278</v>
       </c>
@@ -3605,7 +3609,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="30.75">
+    <row r="150" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>280</v>
       </c>
@@ -3613,7 +3617,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="30.75">
+    <row r="151" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>282</v>
       </c>
@@ -3621,7 +3625,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="30.75">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>284</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30.75">
+    <row r="153" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>286</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>288</v>
       </c>
@@ -3645,7 +3649,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>290</v>
       </c>
@@ -3653,7 +3657,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>292</v>
       </c>
@@ -3661,7 +3665,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>294</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="30.75">
+    <row r="158" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>296</v>
       </c>
@@ -3677,7 +3681,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="30.75">
+    <row r="159" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>298</v>
       </c>
@@ -3685,7 +3689,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="45.75">
+    <row r="160" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>300</v>
       </c>
@@ -3693,7 +3697,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="30.75">
+    <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>302</v>
       </c>
@@ -3701,7 +3705,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="45.75">
+    <row r="162" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>304</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="45.75">
+    <row r="163" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>306</v>
       </c>
@@ -3717,7 +3721,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="30.75">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>308</v>
       </c>
@@ -3725,7 +3729,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="30.75">
+    <row r="165" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>310</v>
       </c>
@@ -3733,7 +3737,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="30.75">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>312</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="30.75">
+    <row r="167" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>314</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="30.75">
+    <row r="168" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>316</v>
       </c>
@@ -3757,7 +3761,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="30.75">
+    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>318</v>
       </c>
@@ -3765,7 +3769,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="30.75">
+    <row r="170" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>320</v>
       </c>
@@ -3773,7 +3777,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="30.75">
+    <row r="171" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>322</v>
       </c>
@@ -3781,7 +3785,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="30.75">
+    <row r="172" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>324</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>326</v>
       </c>
@@ -3797,7 +3801,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="30.75">
+    <row r="174" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>328</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="60.75">
+    <row r="175" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>330</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="45.75">
+    <row r="176" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>332</v>
       </c>
@@ -3821,7 +3825,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="60.75">
+    <row r="177" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>334</v>
       </c>
@@ -3829,7 +3833,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="30.75">
+    <row r="178" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>336</v>
       </c>
@@ -3837,7 +3841,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="60.75">
+    <row r="179" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>338</v>
       </c>
@@ -3845,7 +3849,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="45.75">
+    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>340</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="30.75">
+    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>342</v>
       </c>
@@ -3861,7 +3865,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="30.75">
+    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>344</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>346</v>
       </c>
@@ -3877,7 +3881,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="45.75">
+    <row r="184" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>348</v>
       </c>
@@ -3885,7 +3889,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>350</v>
       </c>
@@ -3893,7 +3897,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>352</v>
       </c>
@@ -3901,7 +3905,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>354</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>356</v>
       </c>
@@ -3917,7 +3921,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="60.75">
+    <row r="189" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>358</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="30.75">
+    <row r="190" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>360</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="60.75">
+    <row r="191" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>362</v>
       </c>
@@ -3941,7 +3945,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="30.75">
+    <row r="192" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>364</v>
       </c>
@@ -3949,7 +3953,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="45.75">
+    <row r="193" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>366</v>
       </c>
@@ -3957,7 +3961,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="30.75">
+    <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>368</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="60.75">
+    <row r="195" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>370</v>
       </c>
@@ -3973,7 +3977,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="30.75">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>372</v>
       </c>
@@ -3981,7 +3985,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="45.75">
+    <row r="197" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>374</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="30.75">
+    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>376</v>
       </c>
@@ -3997,7 +4001,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="45.75">
+    <row r="199" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>378</v>
       </c>
@@ -4005,7 +4009,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="30.75">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>380</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="60.75">
+    <row r="201" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>382</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="30.75">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>384</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="60.75">
+    <row r="203" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>386</v>
       </c>
@@ -4037,7 +4041,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="30.75">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>388</v>
       </c>
@@ -4045,7 +4049,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="30.75">
+    <row r="205" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>390</v>
       </c>
@@ -4053,7 +4057,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="30.75">
+    <row r="206" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>392</v>
       </c>
@@ -4061,7 +4065,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="30.75">
+    <row r="207" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>394</v>
       </c>
@@ -4069,7 +4073,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>396</v>
       </c>
@@ -4077,7 +4081,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="30.75">
+    <row r="209" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>398</v>
       </c>
@@ -4085,7 +4089,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="30.75">
+    <row r="210" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>400</v>
       </c>

--- a/Excel Files/ButtonNames- EXCEL.xlsx
+++ b/Excel Files/ButtonNames- EXCEL.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvir\Downloads\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC914068-4678-4438-904A-BDB7B81274EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A2E51C-12F6-476C-9546-6501DA34E4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1158,9 +1158,6 @@
     <t>Level 2 - B219</t>
   </si>
   <si>
-    <t>B219:  / Panagiotis Vavilis</t>
-  </si>
-  <si>
     <t>Level 2 - B221</t>
   </si>
   <si>
@@ -1915,6 +1912,9 @@
   </si>
   <si>
     <t>K329: Μανόλης Γ. Η. Κατεβαίνης / Manolis G. H. Katevenis</t>
+  </si>
+  <si>
+    <t>B219:  Παναγιώτης Βαβίλης / Panagiotis Vavilis</t>
   </si>
 </sst>
 </file>
@@ -2438,14 +2438,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.1796875" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3081,1020 +3081,1020 @@
         <v>147</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>149</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>401</v>
       </c>
     </row>
   </sheetData>
